--- a/medicine/Enfance/John_Agard/John_Agard.xlsx
+++ b/medicine/Enfance/John_Agard/John_Agard.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">John Agard, né le 21 juin 1949 en Guyane britannique, est un poète, auteur pour la jeunesse et dramaturge afro-guyanien, vivant aujourd'hui en Grande-Bretagne. En 2012, il reçoit la Queen's Gold Medal for Poetry[1]. Certains de ses poèmes, notamment Half-Caste et Checking Out Me History, sont étudiés par les élèves britanniques passant les GSCE depuis 2002.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">John Agard, né le 21 juin 1949 en Guyane britannique, est un poète, auteur pour la jeunesse et dramaturge afro-guyanien, vivant aujourd'hui en Grande-Bretagne. En 2012, il reçoit la Queen's Gold Medal for Poetry. Certains de ses poèmes, notamment Half-Caste et Checking Out Me History, sont étudiés par les élèves britanniques passant les GSCE depuis 2002.
 </t>
         </is>
       </c>
@@ -511,16 +523,18 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Agard grandit à Georgetown, en Guyane britannique. Jeune, il aime écouter les commentaires de cricket à la radio et commence à faire les siens, ce qui le conduit s'intéresser et à aimer le langage[2]. Il étudie, pour son A-level, l'anglais, le français et le latin. C'est au lycée qu'il écrit ses premiers poèmes.
-Il quitte le système scolaire en 1967. Il enseigne ensuite les langues qu'il a étudiées et travaille dans une librairie locale. Il est par ailleurs sous-éditeur et journaliste pour le Guyana Sunday Chronicle, publiant deux livres alors qu'il est toujours en Guyane[2].
-Son père s'installe à Londres et, en 1977, Agard déménage en Grande-Bretagne avec sa partenaire Grace Nichols, s'installant à Ironbridge, dans le Shropshire[3],[4]. Il travaille pour le Commonwealth Institute et la BBC, à Londres.
-Il reçoit en 1997 le Paul Hamlyn Award for Poetry[5], le Prix Cholmondeley en 2004 et, en 2012, la Queen's Gold Medal for Poetry[1].
-En 2008, Agard est poète résidant au National Maritime Museum. Ses poèmes Half-Caste et Checking Out Me History font partie de l'anthologie AQA English pour les GCSE depuis 2002, ce qui signifie que de nombreux étudiants (ayant entre 14 et 16 ans) ont étudié ou étudient son œuvre pour leur examen d'anglais des GCSE[6].
-Des archives littéraires constituées de « lettres et preuves liées à la poésie publiée de John Agard » sont conservées dans les collections spéciales de l'université de Newcastle, dans le Bloodaxe Books Archive[7].
-En 2020, il est sélectionné pour représenter son pays, le Royaume-Uni, pour le Prix Hans-Christian-Andersen, dans la catégorie Auteur[8], prix international danois.
-Aujourd'hui, il vit à Lewes, dans le Sussex de l'Est, avec sa partenaire, la poétesse guyanaise Grace Nichols[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Agard grandit à Georgetown, en Guyane britannique. Jeune, il aime écouter les commentaires de cricket à la radio et commence à faire les siens, ce qui le conduit s'intéresser et à aimer le langage. Il étudie, pour son A-level, l'anglais, le français et le latin. C'est au lycée qu'il écrit ses premiers poèmes.
+Il quitte le système scolaire en 1967. Il enseigne ensuite les langues qu'il a étudiées et travaille dans une librairie locale. Il est par ailleurs sous-éditeur et journaliste pour le Guyana Sunday Chronicle, publiant deux livres alors qu'il est toujours en Guyane.
+Son père s'installe à Londres et, en 1977, Agard déménage en Grande-Bretagne avec sa partenaire Grace Nichols, s'installant à Ironbridge, dans le Shropshire,. Il travaille pour le Commonwealth Institute et la BBC, à Londres.
+Il reçoit en 1997 le Paul Hamlyn Award for Poetry, le Prix Cholmondeley en 2004 et, en 2012, la Queen's Gold Medal for Poetry.
+En 2008, Agard est poète résidant au National Maritime Museum. Ses poèmes Half-Caste et Checking Out Me History font partie de l'anthologie AQA English pour les GCSE depuis 2002, ce qui signifie que de nombreux étudiants (ayant entre 14 et 16 ans) ont étudié ou étudient son œuvre pour leur examen d'anglais des GCSE.
+Des archives littéraires constituées de « lettres et preuves liées à la poésie publiée de John Agard » sont conservées dans les collections spéciales de l'université de Newcastle, dans le Bloodaxe Books Archive.
+En 2020, il est sélectionné pour représenter son pays, le Royaume-Uni, pour le Prix Hans-Christian-Andersen, dans la catégorie Auteur, prix international danois.
+Aujourd'hui, il vit à Lewes, dans le Sussex de l'Est, avec sa partenaire, la poétesse guyanaise Grace Nichols.
 </t>
         </is>
       </c>
@@ -551,8 +565,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>En tant qu'auteur
-Shoot Me With Flowers. Georgetown, Guyana, 1974
+          <t>En tant qu'auteur</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Shoot Me With Flowers. Georgetown, Guyana, 1974
 Letters for Lettie, and Other Stories. Bodley Head, 1979
 Dig Away Two-Hole Tim. Bodley Head, 1981
 Man to Pan. Casa de las Américas (Cuba), 1982
@@ -599,9 +618,43 @@
 Clever Backbone. Bloodaxe, 2009  (ISBN 978-1-85224-822-2)
 The Young Inferno (illustré par Satoshi Kitamura). Frances Lincoln Children's Books, 2009
 Goldilocks on CCTV (illustré par Satoshi Kitamura). Frances Lincoln Children's Books, 2011
-Travel Light Travel Dark. Bloodaxe, 2013.  (ISBN 978-1-85224-991-5)
-En tant qu'éditeur
-Life Doesn't Frighten Me At All. Heinemann, 1989
+Travel Light Travel Dark. Bloodaxe, 2013.  (ISBN 978-1-85224-991-5)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>John_Agard</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/John_Agard</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>En tant qu'éditeur</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Life Doesn't Frighten Me At All. Heinemann, 1989
 A Caribbean Dozen (co-édité avec Grace Nichols). Walker Books, 1994
 Poems in My Earphone. Longman, 1995
 Why is the Sky?. Faber and Faber, 1996
@@ -611,31 +664,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>John_Agard</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/John_Agard</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Casa de las Américas Prize (Cuba) pour Man to Pan
 1987 : Nestlé Smarties Book Prize (shortlist) pour Lend Me Your Wings
@@ -643,9 +698,9 @@
 1997 : Paul Hamlyn Award for Poetry
 2004 : Cholmondeley Award
 2007 : British Book Awards Decibel Writer of the Year pour We Brits
-2009 : Centre for Literacy in Primary Education poetry award pour The Young Inferno[9]
-2012 : Queen's Gold Medal for Poetry[10]
-2020 :  Sélection Royaume-Uni du Prix Hans-Christian-Andersen, dans la catégorie Auteur[8]</t>
+2009 : Centre for Literacy in Primary Education poetry award pour The Young Inferno
+2012 : Queen's Gold Medal for Poetry
+2020 :  Sélection Royaume-Uni du Prix Hans-Christian-Andersen, dans la catégorie Auteur</t>
         </is>
       </c>
     </row>
